--- a/medicine/Handicap/Marche_ou_crève_(film,_2018)/Marche_ou_crève_(film,_2018).xlsx
+++ b/medicine/Handicap/Marche_ou_crève_(film,_2018)/Marche_ou_crève_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marche ou crève est un film français réalisé par Margaux Bonhomme, sorti en 2018.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisa, 17 ans, vit dans la maison familiale dans la nature du Vercors, avec son père et sa sœur polyhandicapée (alors que la mère vient de quitter la maison). Mais elle doit se séparer d'eux à la fin de l'été pour s'installer dans la ville où elle peut suivre ses études. Peut-elle « abandonner » sa sœur ?
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Marche ou crève
 Réalisation : Margaux Bonhomme
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diane Rouxel : Élisa
 Jeanne Cohendy : Manon, la sœur handicapée d'Élisa
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lieux de tournage : 
 Drôme : Chamaloc, La Chapelle-en-Vercors, Peyrins, Romans-sur-Isère, Saint-Bonnet-de-Valclérieux, Saint-Laurent-en-Royans
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+          <t>Marche_ou_crève_(film,_2018)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,11 +676,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival international du film de Saint-Jean-de-Luz 2018 : Chistera de la meilleure interprétation féminine pour Jeanne Cohendy et Diane Rouxel
-Festival du film Nuits noires de Tallinn 2018 : meilleur premier film[1].
-Nominations
-César 2019 : pré-sélection « Révélation » pour le César du meilleur espoir féminin pour Jeanne Cohendy et pour Diane Rouxel
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival international du film de Saint-Jean-de-Luz 2018 : Chistera de la meilleure interprétation féminine pour Jeanne Cohendy et Diane Rouxel
+Festival du film Nuits noires de Tallinn 2018 : meilleur premier film.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marche_ou_crève_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_ou_cr%C3%A8ve_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>César 2019 : pré-sélection « Révélation » pour le César du meilleur espoir féminin pour Jeanne Cohendy et pour Diane Rouxel
 Prix Lumières 2019 : Prix Lumières du meilleur espoir féminin pour Jeanne Cohendy</t>
         </is>
       </c>
